--- a/table.xlsx
+++ b/table.xlsx
@@ -1,122 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\projects\ProjectOne\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3300"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="3300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
-  <si>
-    <t>المحاضرات</t>
-  </si>
-  <si>
-    <t>الأيام/الوقت</t>
-  </si>
-  <si>
-    <t>9:00 - 9:45</t>
-  </si>
-  <si>
-    <t>9:45 - 10:30</t>
-  </si>
-  <si>
-    <t>10:40 - 11:25</t>
-  </si>
-  <si>
-    <t>11:25 - 12:10</t>
-  </si>
-  <si>
-    <t>12:20 - 1:05</t>
-  </si>
-  <si>
-    <t>1:05 - 1:50</t>
-  </si>
-  <si>
-    <t>2:00 - 2:45</t>
-  </si>
-  <si>
-    <t>2:45 - 3:30</t>
-  </si>
-  <si>
-    <t>3:30 - 4:15</t>
-  </si>
-  <si>
-    <t>4:15 - 5:00</t>
-  </si>
-  <si>
-    <t>السبت</t>
-  </si>
-  <si>
-    <t>الأحد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IntroIS INF211 3 1 </t>
-  </si>
-  <si>
-    <t>الإثنين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LogicDesign BSC215 3 1 </t>
-  </si>
-  <si>
-    <t>الثلاثاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English3 BSC214 1 1 </t>
-  </si>
-  <si>
-    <t>الأربعاء</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MngPrnc BSC213 1 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> الخميس</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="26"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -157,39 +97,105 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - تمييز3" xfId="1" builtinId="39"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -455,207 +461,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="11" width="15.77734375" customWidth="1"/>
+    <col width="15.77734375" customWidth="1" min="1" max="1"/>
+    <col width="16.77734375" customWidth="1" min="2" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>المحاضرات</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>الأيام/الوقت</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>9:00 - 9:45</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>9:45 - 10:30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>10:40 - 11:25</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>11:25 - 12:10</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>12:20 - 1:05</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>1:05 - 1:50</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2:00 - 2:45</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>2:45 - 3:30</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>3:30 - 4:15</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>4:15 - 5:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="46.95" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>السبت</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="46.95" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>الأحد</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IntroIS  
+- INF211  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IntroIS  
+- INF211  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+    </row>
+    <row r="5" ht="46.95" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>الإثنين</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LogicDesign  
+- BSC215  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LogicDesign  
+- BSC215  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="46.95" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>الثلاثاء</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">English3  
+- BSC214  - G1  
+- Units: 1 </t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">English3  
+- BSC214  - G1  
+- Units: 1 </t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="46.95" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>الأربعاء</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LogicDesign  
+- BSC215  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LogicDesign  
+- BSC215  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LogicDesign  
+- BSC215  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IntroIS  
+- INF211  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IntroIS  
+- INF211  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IntroIS  
+- INF211  - G1  
+- Units: 3 </t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MngPrnc  
+- BSC213  - G1  
+- Units: 1 </t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MngPrnc  
+- BSC213  - G1  
+- Units: 1 </t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="46.95" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> الخميس</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="46.95" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>عدد الوحدات:</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="33.6" customHeight="1">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
